--- a/temp.xlsx
+++ b/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan\source\repos\lostSG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD3BA22-6F25-45E1-ACC8-056EDDA244C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0385C655-1503-41DC-AEB8-D10487E2C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8730" yWindow="810" windowWidth="21600" windowHeight="13350" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1530" windowWidth="21600" windowHeight="13350" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Summary" sheetId="1" r:id="rId1"/>
@@ -1717,20 +1717,8 @@
 21:00  </t>
   </si>
   <si>
-    <t xml:space="preserve">18:04  
-23:02  </t>
-  </si>
-  <si>
     <t xml:space="preserve">16:45  
 23:24  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:42  
-17:57  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:04  
-23:11  </t>
   </si>
   <si>
     <t xml:space="preserve">17:20  
@@ -1998,6 +1986,18 @@
     <t xml:space="preserve">10:00
 00:15  </t>
   </si>
+  <si>
+    <t>10:42  
+17:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:04 
+23:11 </t>
+  </si>
+  <si>
+    <t>18:04
+23:02</t>
+  </si>
 </sst>
 </file>
 
@@ -2175,6 +2175,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2189,9 +2192,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2434,106 +2434,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="51" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="9"/>
     </row>
     <row r="2" spans="1:47" ht="25.5" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="9"/>
     </row>
     <row r="3" spans="1:47" ht="20.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -6614,187 +6614,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="51" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="9"/>
     </row>
     <row r="2" spans="1:36" ht="25.5" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="9"/>
     </row>
     <row r="3" spans="1:36" ht="20.25" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="12" t="s">
+      <c r="K3" s="9"/>
+      <c r="L3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="12" t="s">
+      <c r="M3" s="9"/>
+      <c r="N3" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="12" t="s">
+      <c r="O3" s="9"/>
+      <c r="P3" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="12" t="s">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="10" t="s">
+      <c r="S3" s="9"/>
+      <c r="T3" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AA3" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AB3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AC3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AD3" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AE3" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AF3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AG3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AH3" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="9"/>
     </row>
     <row r="4" spans="1:36" ht="20.25" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="1" t="s">
         <v>128</v>
       </c>
@@ -6831,20 +6831,20 @@
       <c r="S4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
       <c r="AH4" s="1" t="s">
         <v>130</v>
       </c>
@@ -58768,15 +58768,11 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="AG3:AG4"/>
@@ -58793,11 +58789,15 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.3" bottom="0.6" header="0" footer="0"/>
@@ -58839,48 +58839,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="51" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="20.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -66910,10 +66910,10 @@
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S5" activeCellId="1" sqref="R5 S5"/>
+      <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -66926,84 +66926,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="51" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="9"/>
     </row>
     <row r="2" spans="1:36" ht="25.5" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="9"/>
     </row>
     <row r="3" spans="1:36" ht="20.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -67230,7 +67230,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -67239,23 +67239,23 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z5" s="5" t="s">
         <v>552</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>553</v>
       </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="5" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="AG5" s="5" t="s">
         <v>621</v>
-      </c>
-      <c r="AG5" s="5" t="s">
-        <v>555</v>
       </c>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
@@ -67271,8 +67271,8 @@
       <c r="E6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>620</v>
+      <c r="F6" s="6" t="s">
+        <v>617</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -67280,20 +67280,20 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="T6" s="13">
+        <v>555</v>
+      </c>
+      <c r="T6" s="6">
         <v>0.7402777777777777</v>
       </c>
       <c r="U6" s="2"/>
@@ -67302,7 +67302,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
@@ -67311,7 +67311,7 @@
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
@@ -67343,7 +67343,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -67467,7 +67467,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -67476,7 +67476,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
@@ -67485,7 +67485,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -67555,10 +67555,10 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -67567,7 +67567,7 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -67575,7 +67575,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -67584,7 +67584,7 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="87.75" customHeight="1">
@@ -67600,7 +67600,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -67615,7 +67615,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -67649,7 +67649,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -67658,7 +67658,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -67674,7 +67674,7 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
@@ -67694,13 +67694,13 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -67744,17 +67744,17 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -67763,10 +67763,10 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
@@ -67795,7 +67795,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -67818,7 +67818,7 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -67838,73 +67838,73 @@
         <v>92</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>587</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>590</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="V18" s="5" t="s">
         <v>591</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>594</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="AC18" s="5" t="s">
         <v>595</v>
-      </c>
-      <c r="AA18" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="AB18" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="AC18" s="5" t="s">
-        <v>598</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="AH18" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="AI18" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
         <v>599</v>
-      </c>
-      <c r="AH18" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="AI18" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="AJ18" s="5" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="87.75" customHeight="1">
@@ -67922,7 +67922,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -67938,7 +67938,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
@@ -68049,7 +68049,7 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -68061,45 +68061,45 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="5" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AB22" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AI22" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AJ22" s="2"/>
     </row>
@@ -68117,7 +68117,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -68126,7 +68126,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -68163,7 +68163,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -68186,7 +68186,7 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
